--- a/config_3.23/fish_yutu_random_2.xlsx
+++ b/config_3.23/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,10 +1229,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G7" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="F8" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G8" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G9" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>79</v>
       </c>
       <c r="F10" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G10" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>79</v>
       </c>
       <c r="F11" s="23">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="G11" s="23">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
